--- a/station-distances.xlsx
+++ b/station-distances.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t xml:space="preserve">E1</t>
   </si>
@@ -62,6 +62,57 @@
   </si>
   <si>
     <t xml:space="preserve">E14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,5-blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,5-yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,3-blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,4-red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,7-red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,3-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,8-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4-yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,6-yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,4-green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,2-red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,1-green</t>
   </si>
 </sst>
 </file>
@@ -169,16 +220,16 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.7"/>
@@ -242,11 +293,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>10</v>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -261,29 +310,27 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>8.5</v>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>3.5</v>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -295,80 +342,74 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>6.3</v>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="2" t="n">
-        <v>9.4</v>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="2" t="n">
-        <v>18.7</v>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>13</v>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="2" t="n">
-        <v>15.3</v>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="2" t="n">
-        <v>12.8</v>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>30</v>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -385,12 +426,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -400,7 +439,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -408,13 +447,11 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2" t="n">
-        <v>2.4</v>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -423,71 +460,67 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>30</v>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>9.6</v>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="2" t="n">
-        <v>6.4</v>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>9.4</v>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="2" t="n">
-        <v>12.2</v>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="n">
-        <v>3.5</v>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -496,15 +529,13 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -515,21 +546,16 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>12.2</v>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -540,13 +566,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -556,11 +582,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="2" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>12.8</v>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -570,11 +596,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>5.1</v>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,12 +617,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="N15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
